--- a/Analyses/main study - LLM/output/G3/rescue robot frequency table codes.xlsx
+++ b/Analyses/main study - LLM/output/G3/rescue robot frequency table codes.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E96"/>
+  <dimension ref="A1:E87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,10 +477,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -496,14 +496,14 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>basic needs</t>
+          <t>information generation</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -523,10 +523,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -542,14 +542,14 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>information generation</t>
+          <t>basic needs</t>
         </is>
       </c>
       <c r="D5" t="n">
         <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
@@ -565,14 +565,14 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>exploration</t>
+          <t>search improvement</t>
         </is>
       </c>
       <c r="D6" t="n">
         <v>10</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -588,14 +588,14 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>search improvement</t>
+          <t>exploration</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -611,14 +611,14 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>autonomy</t>
+          <t>remote controlled</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -634,14 +634,14 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>a robot's continuous operation</t>
+          <t>readiness</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -657,14 +657,14 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>more possibilities</t>
+          <t>limitations in handling complex or multiple tasks</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -680,14 +680,14 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>readiness</t>
+          <t>more possibilities</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -703,14 +703,14 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>versatility</t>
+          <t>speed</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -726,14 +726,14 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>sensor technology</t>
+          <t>a robot's continuous operation</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -749,14 +749,14 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>remote controlled</t>
+          <t>efficiency</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -772,11 +772,11 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>efficiency</t>
+          <t>multiplicability</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -795,14 +795,14 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>situational awareness</t>
+          <t>versatility</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -818,14 +818,14 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>adaptability</t>
+          <t>situational awareness</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E17" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -841,11 +841,11 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>data collection</t>
+          <t>sensor technology</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -868,10 +868,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -910,14 +910,14 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>speed</t>
+          <t>autonomy</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -933,14 +933,14 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>limitations in handling complex or multiple tasks</t>
+          <t>obstacle removal</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -956,14 +956,14 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>obstacle removal</t>
+          <t>adaptability</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -983,7 +983,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E24" t="n">
         <v>1</v>
@@ -1002,14 +1002,14 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>multiplicability</t>
+          <t>strength</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1025,14 +1025,14 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>strength</t>
+          <t>effectiveness</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -1048,11 +1048,11 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>night vision</t>
+          <t>enhanced capabilities</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -1071,11 +1071,11 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>effectiveness</t>
+          <t>assess damage</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -1094,14 +1094,14 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>inspection</t>
+          <t>cost calculation</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1117,11 +1117,11 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>assess damage</t>
+          <t>night vision</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -1140,14 +1140,14 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>load capacity</t>
+          <t>inspection</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1167,7 +1167,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -1186,20 +1186,20 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>enhanced capabilities</t>
+          <t>load capacity</t>
         </is>
       </c>
       <c r="D33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" t="n">
         <v>2</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>TL</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1209,11 +1209,11 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>mine clearance</t>
+          <t>faulty analyses</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -1222,7 +1222,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>TL</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1232,14 +1232,14 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>cost calculation</t>
+          <t>perceived risk</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
@@ -1255,14 +1255,14 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>perceived risk</t>
+          <t>error risk</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E36" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1278,11 +1278,11 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>error risk</t>
+          <t>limited autonomy</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -1301,14 +1301,14 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>faulty analyses</t>
+          <t>operational mechanism</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39">
@@ -1328,10 +1328,10 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1347,14 +1347,14 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>operational mechanism</t>
+          <t>robot_runtime</t>
         </is>
       </c>
       <c r="D40" t="n">
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41">
@@ -1370,14 +1370,14 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>limited autonomy</t>
+          <t>immature technology</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1393,11 +1393,11 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>robot_runtime</t>
+          <t>risk</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E42" t="n">
         <v>1</v>
@@ -1439,14 +1439,14 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>speed comparison</t>
+          <t>damage not excludable</t>
         </is>
       </c>
       <c r="D44" t="n">
         <v>4</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45">
@@ -1462,14 +1462,14 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>operational_delay</t>
+          <t>speed comparison</t>
         </is>
       </c>
       <c r="D45" t="n">
         <v>4</v>
       </c>
       <c r="E45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1485,14 +1485,14 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>damage not excludable</t>
+          <t>movement</t>
         </is>
       </c>
       <c r="D46" t="n">
         <v>3</v>
       </c>
       <c r="E46" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1508,11 +1508,11 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>immature technology</t>
+          <t>pattern recognition</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
@@ -1531,7 +1531,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>risk</t>
+          <t>operational_delay</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -1544,7 +1544,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>TL</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1554,20 +1554,20 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>pattern recognition</t>
+          <t>Operational Efficiency</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>TL</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1577,14 +1577,14 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>movement</t>
+          <t>access</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51">
@@ -1600,14 +1600,14 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>strength</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="E51" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
@@ -1623,14 +1623,14 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>risk reduction</t>
+          <t>accessibility</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E52" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
@@ -1646,14 +1646,14 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>efficiency</t>
+          <t>operational capability</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -1669,14 +1669,14 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>speed</t>
+          <t>reliability</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E54" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55">
@@ -1692,14 +1692,14 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>operational capability</t>
+          <t>physical capabilities</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56">
@@ -1715,11 +1715,11 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>strength</t>
+          <t>environment</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
@@ -1738,11 +1738,11 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>search capabilities</t>
+          <t>replaceability</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
@@ -1761,14 +1761,14 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>access</t>
+          <t>search capabilities</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -1784,11 +1784,11 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>physical capabilities</t>
+          <t>focus on task</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E59" t="n">
         <v>1</v>
@@ -1807,14 +1807,14 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>accessibility</t>
+          <t>delivery of goods</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61">
@@ -1830,11 +1830,11 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>operational efficiency</t>
+          <t>automation</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>R</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1853,20 +1853,20 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>reliability</t>
+          <t>Potential Misuse</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>R</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1876,20 +1876,20 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>benefit</t>
+          <t>Objective Concerns</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E63" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>R</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1899,20 +1899,20 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>replaceability</t>
+          <t>Technical Issues</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>R</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1922,20 +1922,20 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>environment</t>
+          <t>Potential Physical Harm</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E65" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>R</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>replaceable</t>
+          <t>Unpredictability</t>
         </is>
       </c>
       <c r="D66" t="n">
@@ -1958,7 +1958,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>R</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1968,20 +1968,20 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>delivery of goods</t>
+          <t>Durability</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E67" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>R</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1991,11 +1991,11 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>focus on task</t>
+          <t>Misidentification</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
@@ -2004,7 +2004,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>R</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2014,7 +2014,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>automation</t>
+          <t>Objective Threats</t>
         </is>
       </c>
       <c r="D69" t="n">
@@ -2037,14 +2037,14 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>perceived risk</t>
+          <t>Accuracy</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E70" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71">
@@ -2060,14 +2060,14 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>potential misuse</t>
+          <t>Material</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E71" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72">
@@ -2083,20 +2083,20 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>potential harm to victims</t>
+          <t>Safety</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E72" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>HRIP</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2106,20 +2106,20 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Error development</t>
+          <t>Collaborative Support</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>HRIP</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2129,20 +2129,20 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>potential risk</t>
+          <t>Emotional Resilience</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>HRIN</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2152,20 +2152,20 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>precision</t>
+          <t>lack of emotional understanding</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E75" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>HRIN</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2175,20 +2175,20 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>fear</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E76" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>HRIN</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2198,20 +2198,20 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>unpredictability</t>
+          <t>Reliance and Trust</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>HRIN</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2221,20 +2221,20 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>design limitation</t>
+          <t>emotional coldness</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E78" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2244,20 +2244,20 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>technical limitation</t>
+          <t>autonomous decisions</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E79" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2267,20 +2267,20 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>durability</t>
+          <t>lack of emotionality</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E80" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>unintended actions</t>
+          <t>efficiency</t>
         </is>
       </c>
       <c r="D81" t="n">
@@ -2303,7 +2303,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>HRIP</t>
+          <t>AN</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2313,20 +2313,20 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>complementary role</t>
+          <t>lack_of_empathy</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>HRIP</t>
+          <t>AN</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2336,11 +2336,11 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>comfort</t>
+          <t>lack_of_human_judgment</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E83" t="n">
         <v>0</v>
@@ -2349,7 +2349,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>HRIN</t>
+          <t>AN</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2359,11 +2359,11 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>lack of emotional understanding</t>
+          <t>errors_in_autonomy</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E84" t="n">
         <v>1</v>
@@ -2372,7 +2372,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>HRIN</t>
+          <t>AN</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2382,11 +2382,11 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>carefulness</t>
+          <t>perceived_negative_anthropomorphism</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E85" t="n">
         <v>1</v>
@@ -2395,7 +2395,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>HRIN</t>
+          <t>AN</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2405,20 +2405,20 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>emotional coldness</t>
+          <t>lack_of_alignment</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>HRIN</t>
+          <t>AN</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2428,220 +2428,13 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>emotions</t>
+          <t>perspective</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E87" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>AP</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>RR</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>lack of emotionality</t>
-        </is>
-      </c>
-      <c r="D88" t="n">
-        <v>5</v>
-      </c>
-      <c r="E88" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>AP</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>RR</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>autonomous decisions</t>
-        </is>
-      </c>
-      <c r="D89" t="n">
-        <v>5</v>
-      </c>
-      <c r="E89" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>AP</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>RR</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>efficiency</t>
-        </is>
-      </c>
-      <c r="D90" t="n">
-        <v>5</v>
-      </c>
-      <c r="E90" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>AN</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>RR</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>lack_of_empathy</t>
-        </is>
-      </c>
-      <c r="D91" t="n">
-        <v>11</v>
-      </c>
-      <c r="E91" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>AN</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>RR</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>lack_of_human_judgment</t>
-        </is>
-      </c>
-      <c r="D92" t="n">
-        <v>7</v>
-      </c>
-      <c r="E92" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>AN</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>RR</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>errors_in_autonomy</t>
-        </is>
-      </c>
-      <c r="D93" t="n">
-        <v>5</v>
-      </c>
-      <c r="E93" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>AN</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>RR</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>perceived_negative_anthropomorphism</t>
-        </is>
-      </c>
-      <c r="D94" t="n">
-        <v>4</v>
-      </c>
-      <c r="E94" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>AN</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>RR</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>perspective</t>
-        </is>
-      </c>
-      <c r="D95" t="n">
-        <v>2</v>
-      </c>
-      <c r="E95" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>AN</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>RR</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>lack_of_alignment</t>
-        </is>
-      </c>
-      <c r="D96" t="n">
-        <v>1</v>
-      </c>
-      <c r="E96" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Analyses/main study - LLM/output/G3/rescue robot frequency table codes.xlsx
+++ b/Analyses/main study - LLM/output/G3/rescue robot frequency table codes.xlsx
@@ -451,12 +451,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>rigid</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>soft</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>rigid</t>
         </is>
       </c>
     </row>
@@ -477,10 +477,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -496,14 +496,14 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>information generation</t>
+          <t>specialized tasks</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +519,14 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>specialized tasks</t>
+          <t>basic needs</t>
         </is>
       </c>
       <c r="D4" t="n">
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">
@@ -542,14 +542,14 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>basic needs</t>
+          <t>more possibilities</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -565,14 +565,14 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>search improvement</t>
+          <t>continuous operation</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -588,11 +588,11 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>exploration</t>
+          <t>information generation</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -611,11 +611,11 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>remote controlled</t>
+          <t>search improvement</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -634,14 +634,14 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>readiness</t>
+          <t>versatility</t>
         </is>
       </c>
       <c r="D9" t="n">
         <v>7</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -657,14 +657,14 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>limitations in handling complex or multiple tasks</t>
+          <t>exploration</t>
         </is>
       </c>
       <c r="D10" t="n">
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -680,14 +680,14 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>more possibilities</t>
+          <t>autonomy</t>
         </is>
       </c>
       <c r="D11" t="n">
         <v>6</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -703,14 +703,14 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>speed</t>
+          <t>readiness</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -726,14 +726,14 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>a robot's continuous operation</t>
+          <t>limitations in handling complex or multiple tasks</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -749,14 +749,14 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>efficiency</t>
+          <t>sensor technology</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -772,14 +772,14 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>multiplicability</t>
+          <t>remote controlled</t>
         </is>
       </c>
       <c r="D15" t="n">
+        <v>5</v>
+      </c>
+      <c r="E15" t="n">
         <v>4</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -795,14 +795,14 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>versatility</t>
+          <t>adaptability</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -818,14 +818,14 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>situational awareness</t>
+          <t>efficiency</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -841,14 +841,14 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>sensor technology</t>
+          <t>obstacle removal</t>
         </is>
       </c>
       <c r="D18" t="n">
         <v>4</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -864,11 +864,11 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>underwater rescue</t>
+          <t>situational awareness</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
@@ -887,14 +887,14 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>flight</t>
+          <t>multiplicability</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -910,14 +910,14 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>autonomy</t>
+          <t>live broadcasting</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -933,11 +933,11 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>obstacle removal</t>
+          <t>speed</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E22" t="n">
         <v>1</v>
@@ -956,14 +956,14 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>adaptability</t>
+          <t>data collection</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -979,11 +979,11 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>size</t>
+          <t>underwater rescue</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E24" t="n">
         <v>1</v>
@@ -1002,14 +1002,14 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>strength</t>
+          <t>mine clearance</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -1029,7 +1029,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E26" t="n">
         <v>2</v>
@@ -1048,14 +1048,14 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>enhanced capabilities</t>
+          <t>flight</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1071,14 +1071,14 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>assess damage</t>
+          <t>inspection</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1094,14 +1094,14 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>cost calculation</t>
+          <t>load capacity</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
@@ -1117,14 +1117,14 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>night vision</t>
+          <t>enhanced capabilities</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -1140,14 +1140,14 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>inspection</t>
+          <t>assess damage</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
@@ -1163,14 +1163,14 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>live broadcasting</t>
+          <t>cost calculation</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -1186,20 +1186,20 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>load capacity</t>
+          <t>night vision</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>TL</t>
+          <t>TP</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1209,20 +1209,20 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>faulty analyses</t>
+          <t>size</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>TL</t>
+          <t>TP</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1232,14 +1232,14 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>perceived risk</t>
+          <t>strength</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -1255,14 +1255,14 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>error risk</t>
+          <t>perceived risk</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37">
@@ -1278,14 +1278,14 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>limited autonomy</t>
+          <t>error risk</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
@@ -1301,15 +1301,13 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>operational mechanism</t>
+          <t>faulty analyses</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>7</v>
-      </c>
-      <c r="E38" t="n">
-        <v>4</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1324,11 +1322,11 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>specialization</t>
+          <t>operational mechanism</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E39" t="n">
         <v>1</v>
@@ -1347,14 +1345,14 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>robot_runtime</t>
+          <t>specialization</t>
         </is>
       </c>
       <c r="D40" t="n">
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1370,14 +1368,14 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>immature technology</t>
+          <t>robot runtime</t>
         </is>
       </c>
       <c r="D41" t="n">
         <v>6</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
@@ -1393,14 +1391,14 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>risk</t>
+          <t>limited autonomy</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -1416,14 +1414,14 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>limited flexibility</t>
+          <t>immature technology</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1443,10 +1441,10 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E44" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45">
@@ -1466,11 +1464,9 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>4</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1485,15 +1481,13 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>movement</t>
+          <t>operational delay</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>3</v>
-      </c>
-      <c r="E46" t="n">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1508,15 +1502,13 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>pattern recognition</t>
+          <t>movement</t>
         </is>
       </c>
       <c r="D47" t="n">
         <v>2</v>
       </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
+      <c r="E47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1531,7 +1523,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>operational_delay</t>
+          <t>limited flexibility</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -1544,7 +1536,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>TL</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1554,14 +1546,14 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Operational Efficiency</t>
+          <t>risk</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -1577,14 +1569,14 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>access</t>
+          <t>reliability</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E50" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51">
@@ -1600,11 +1592,11 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>strength</t>
+          <t>operational efficiency</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E51" t="n">
         <v>2</v>
@@ -1623,11 +1615,11 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>accessibility</t>
+          <t>operational capability</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E52" t="n">
         <v>2</v>
@@ -1646,14 +1638,14 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>operational capability</t>
+          <t>physical capabilities</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E53" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54">
@@ -1669,14 +1661,14 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>reliability</t>
+          <t>accessibility</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E54" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55">
@@ -1692,14 +1684,14 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>physical capabilities</t>
+          <t>access</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E55" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1715,14 +1707,14 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>environment</t>
+          <t>strength</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -1738,14 +1730,14 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>replaceability</t>
+          <t>search capabilities</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -1761,14 +1753,14 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>search capabilities</t>
+          <t>environment</t>
         </is>
       </c>
       <c r="D58" t="n">
         <v>11</v>
       </c>
       <c r="E58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
@@ -1784,14 +1776,14 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>focus on task</t>
+          <t>replaceability</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
@@ -1807,15 +1799,13 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>delivery of goods</t>
+          <t>automation</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>7</v>
-      </c>
-      <c r="E60" t="n">
-        <v>5</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1830,20 +1820,20 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>automation</t>
+          <t>focus on task</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1853,14 +1843,14 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Potential Misuse</t>
+          <t>delivery of goods</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E62" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63">
@@ -1876,11 +1866,11 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Objective Concerns</t>
+          <t>technical issues</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="n">
         <v>1</v>
@@ -1899,14 +1889,14 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Technical Issues</t>
+          <t>potential physical harm</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E64" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65">
@@ -1922,14 +1912,14 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Potential Physical Harm</t>
+          <t>potential misuse</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E65" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -1945,14 +1935,14 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Unpredictability</t>
+          <t>accuracy</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67">
@@ -1968,14 +1958,14 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Durability</t>
+          <t>objective concerns</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E67" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
@@ -1991,14 +1981,14 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Misidentification</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2014,15 +2004,13 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Objective Threats</t>
+          <t>misidentification</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>2</v>
-      </c>
-      <c r="E69" t="n">
-        <v>0</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2037,15 +2025,13 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Accuracy</t>
+          <t>unpredictability</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>2</v>
-      </c>
-      <c r="E70" t="n">
-        <v>11</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2060,14 +2046,14 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Material</t>
+          <t>durability</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E71" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72">
@@ -2083,20 +2069,20 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Safety</t>
+          <t>objective threats</t>
         </is>
       </c>
       <c r="D72" t="n">
         <v>1</v>
       </c>
       <c r="E72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>HRIP</t>
+          <t>R</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2106,14 +2092,14 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Collaborative Support</t>
+          <t>material</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E73" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74">
@@ -2129,20 +2115,20 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Emotional Resilience</t>
+          <t>collaborative support</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>HRIN</t>
+          <t>HRIP</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2152,14 +2138,14 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>lack of emotional understanding</t>
+          <t>emotional resilience</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -2175,11 +2161,11 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>lack of emotional understanding</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E76" t="n">
         <v>1</v>
@@ -2198,15 +2184,13 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Reliance and Trust</t>
+          <t>fear</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>5</v>
-      </c>
-      <c r="E77" t="n">
-        <v>1</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2221,20 +2205,18 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>emotional coldness</t>
+          <t>reliance and trust</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>4</v>
-      </c>
-      <c r="E78" t="n">
-        <v>0</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>HRIN</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2244,14 +2226,14 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>autonomous decisions</t>
+          <t>emotional coldness</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -2267,15 +2249,13 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>lack of emotionality</t>
+          <t>autonomous decisions</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>4</v>
-      </c>
-      <c r="E80" t="n">
-        <v>0</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2290,20 +2270,18 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>efficiency</t>
+          <t>lack of emotionality</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>2</v>
-      </c>
-      <c r="E81" t="n">
-        <v>0</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>AN</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2313,15 +2291,13 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>lack_of_empathy</t>
+          <t>efficiency</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>11</v>
-      </c>
-      <c r="E82" t="n">
-        <v>0</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2336,15 +2312,13 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>lack_of_human_judgment</t>
+          <t>lack of empathy</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>7</v>
-      </c>
-      <c r="E83" t="n">
-        <v>0</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2359,15 +2333,13 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>errors_in_autonomy</t>
+          <t>lack of human judgment</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>6</v>
-      </c>
-      <c r="E84" t="n">
-        <v>1</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2382,11 +2354,11 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>perceived_negative_anthropomorphism</t>
+          <t>errors in autonomy</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E85" t="n">
         <v>1</v>
@@ -2405,15 +2377,13 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>lack_of_alignment</t>
+          <t>perspective</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>2</v>
-      </c>
-      <c r="E86" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2428,15 +2398,13 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>perspective</t>
+          <t>lack of alignment</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1</v>
-      </c>
-      <c r="E87" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E87" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Analyses/main study - LLM/output/G3/rescue robot frequency table codes.xlsx
+++ b/Analyses/main study - LLM/output/G3/rescue robot frequency table codes.xlsx
@@ -477,10 +477,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -496,14 +496,14 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>specialized tasks</t>
+          <t>exploration</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -519,15 +519,13 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>basic needs</t>
+          <t>information generation</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>10</v>
-      </c>
-      <c r="E4" t="n">
-        <v>26</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -542,14 +540,14 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>more possibilities</t>
+          <t>continuous operation</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -565,11 +563,11 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>continuous operation</t>
+          <t>specialized tasks</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="n">
         <v>3</v>
@@ -588,7 +586,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>information generation</t>
+          <t>versatility</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -615,10 +613,10 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -634,14 +632,14 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>versatility</t>
+          <t>basic needs</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10">
@@ -657,11 +655,11 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>exploration</t>
+          <t>more possibilities</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E10" t="n">
         <v>3</v>
@@ -680,14 +678,14 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>autonomy</t>
+          <t>obstacle removal</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -703,15 +701,13 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>readiness</t>
+          <t>efficiency</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>6</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -726,14 +722,14 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>limitations in handling complex or multiple tasks</t>
+          <t>situational awareness</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -749,11 +745,11 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>sensor technology</t>
+          <t>autonomy</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E14" t="n">
         <v>2</v>
@@ -772,15 +768,13 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>remote controlled</t>
+          <t>readiness</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>5</v>
-      </c>
-      <c r="E15" t="n">
-        <v>4</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -795,15 +789,13 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>adaptability</t>
+          <t>speed</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>5</v>
-      </c>
-      <c r="E16" t="n">
-        <v>5</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -818,15 +810,13 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>efficiency</t>
+          <t>sensor technology</t>
         </is>
       </c>
       <c r="D17" t="n">
         <v>5</v>
       </c>
-      <c r="E17" t="n">
-        <v>2</v>
-      </c>
+      <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -841,14 +831,14 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>obstacle removal</t>
+          <t>size</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -864,14 +854,14 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>situational awareness</t>
+          <t>limitations in handling complex or multiple tasks</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -887,14 +877,14 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>multiplicability</t>
+          <t>remote controlled</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -910,15 +900,13 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>live broadcasting</t>
+          <t>data collection</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>4</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -933,15 +921,13 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>speed</t>
+          <t>multiplicability</t>
         </is>
       </c>
       <c r="D22" t="n">
         <v>4</v>
       </c>
-      <c r="E22" t="n">
-        <v>1</v>
-      </c>
+      <c r="E22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -956,15 +942,13 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>data collection</t>
+          <t>flight</t>
         </is>
       </c>
       <c r="D23" t="n">
         <v>4</v>
       </c>
-      <c r="E23" t="n">
-        <v>2</v>
-      </c>
+      <c r="E23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -979,14 +963,14 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>underwater rescue</t>
+          <t>adaptability</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -1002,15 +986,13 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>mine clearance</t>
+          <t>inspection</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>3</v>
-      </c>
-      <c r="E25" t="n">
-        <v>2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1032,7 +1014,7 @@
         <v>3</v>
       </c>
       <c r="E26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1048,15 +1030,13 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>flight</t>
+          <t>cost calculation</t>
         </is>
       </c>
       <c r="D27" t="n">
         <v>3</v>
       </c>
-      <c r="E27" t="n">
-        <v>1</v>
-      </c>
+      <c r="E27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1071,15 +1051,13 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>inspection</t>
+          <t>strength</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>2</v>
-      </c>
-      <c r="E28" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1094,15 +1072,13 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>load capacity</t>
+          <t>enhanced capabilities</t>
         </is>
       </c>
       <c r="D29" t="n">
         <v>2</v>
       </c>
-      <c r="E29" t="n">
-        <v>3</v>
-      </c>
+      <c r="E29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1117,15 +1093,13 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>enhanced capabilities</t>
+          <t>live broadcasting</t>
         </is>
       </c>
       <c r="D30" t="n">
         <v>2</v>
       </c>
-      <c r="E30" t="n">
-        <v>2</v>
-      </c>
+      <c r="E30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1140,14 +1114,14 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>assess damage</t>
+          <t>underwater rescue</t>
         </is>
       </c>
       <c r="D31" t="n">
         <v>2</v>
       </c>
       <c r="E31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1163,14 +1137,14 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>cost calculation</t>
+          <t>mine clearance</t>
         </is>
       </c>
       <c r="D32" t="n">
         <v>2</v>
       </c>
       <c r="E32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1209,15 +1183,13 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>size</t>
+          <t>assess damage</t>
         </is>
       </c>
       <c r="D34" t="n">
         <v>2</v>
       </c>
-      <c r="E34" t="n">
-        <v>3</v>
-      </c>
+      <c r="E34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1232,11 +1204,11 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>strength</t>
+          <t>load capacity</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E35" t="n">
         <v>2</v>
@@ -1259,10 +1231,10 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E36" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37">
@@ -1278,14 +1250,14 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>error risk</t>
+          <t>faulty analyses</t>
         </is>
       </c>
       <c r="D37" t="n">
         <v>12</v>
       </c>
       <c r="E37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1301,11 +1273,11 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>faulty analyses</t>
+          <t>error risk</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E38" t="inlineStr"/>
     </row>
@@ -1326,10 +1298,10 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -1345,14 +1317,14 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>specialization</t>
+          <t>limited autonomy</t>
         </is>
       </c>
       <c r="D40" t="n">
         <v>7</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -1368,15 +1340,13 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>robot runtime</t>
+          <t>specialization</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>6</v>
-      </c>
-      <c r="E41" t="n">
-        <v>2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1391,14 +1361,14 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>limited autonomy</t>
+          <t>immature technology</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1414,15 +1384,13 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>immature technology</t>
+          <t>speed comparison</t>
         </is>
       </c>
       <c r="D43" t="n">
         <v>3</v>
       </c>
-      <c r="E43" t="n">
-        <v>1</v>
-      </c>
+      <c r="E43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1441,10 +1409,10 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E44" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45">
@@ -1460,13 +1428,15 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>speed comparison</t>
+          <t>robot runtime</t>
         </is>
       </c>
       <c r="D45" t="n">
         <v>2</v>
       </c>
-      <c r="E45" t="inlineStr"/>
+      <c r="E45" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1481,13 +1451,15 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>operational delay</t>
+          <t>limited flexibility</t>
         </is>
       </c>
       <c r="D46" t="n">
         <v>2</v>
       </c>
-      <c r="E46" t="inlineStr"/>
+      <c r="E46" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1502,13 +1474,15 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>movement</t>
+          <t>risk</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2</v>
-      </c>
-      <c r="E47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="E47" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1523,20 +1497,18 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>limited flexibility</t>
+          <t>movement</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>2</v>
-      </c>
-      <c r="E48" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>TL</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1546,14 +1518,14 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>risk</t>
+          <t>accessibility</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50">
@@ -1569,14 +1541,14 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>reliability</t>
+          <t>operational efficiency</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
@@ -1592,14 +1564,14 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>operational efficiency</t>
+          <t>reliability</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E51" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52">
@@ -1645,7 +1617,7 @@
         <v>22</v>
       </c>
       <c r="E53" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54">
@@ -1661,14 +1633,14 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>accessibility</t>
+          <t>access</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E54" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55">
@@ -1684,14 +1656,14 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>access</t>
+          <t>strength</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
@@ -1707,14 +1679,14 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>strength</t>
+          <t>search capabilities</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
@@ -1730,11 +1702,11 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>search capabilities</t>
+          <t>replaceability</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E57" t="n">
         <v>1</v>
@@ -1757,11 +1729,9 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>11</v>
-      </c>
-      <c r="E58" t="n">
-        <v>2</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1776,14 +1746,14 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>replaceability</t>
+          <t>automation</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -1799,13 +1769,15 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>automation</t>
+          <t>focus on task</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>11</v>
-      </c>
-      <c r="E60" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="E60" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1820,20 +1792,20 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>focus on task</t>
+          <t>delivery of goods</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E61" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>R</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1843,14 +1815,14 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>delivery of goods</t>
+          <t>potential physical harm</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E62" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63">
@@ -1866,15 +1838,13 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>technical issues</t>
+          <t>objective concerns</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>11</v>
-      </c>
-      <c r="E63" t="n">
-        <v>1</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="E63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1889,15 +1859,13 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>potential physical harm</t>
+          <t>potential misuse</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>9</v>
-      </c>
-      <c r="E64" t="n">
-        <v>3</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="E64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1912,14 +1880,14 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>potential misuse</t>
+          <t>technical issues</t>
         </is>
       </c>
       <c r="D65" t="n">
         <v>8</v>
       </c>
       <c r="E65" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66">
@@ -1939,7 +1907,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E66" t="n">
         <v>10</v>
@@ -1958,14 +1926,14 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>objective concerns</t>
+          <t>misidentification</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -1981,14 +1949,14 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>durability</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E68" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69">
@@ -2004,11 +1972,11 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>misidentification</t>
+          <t>unpredictability</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E69" t="inlineStr"/>
     </row>
@@ -2025,13 +1993,15 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>unpredictability</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>3</v>
-      </c>
-      <c r="E70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="E70" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2046,20 +2016,20 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>durability</t>
+          <t>material</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E71" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>HRIP</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2069,20 +2039,20 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>objective threats</t>
+          <t>collaborative support</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>HRIP</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2092,14 +2062,14 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>material</t>
+          <t>sustained performance</t>
         </is>
       </c>
       <c r="D73" t="n">
         <v>1</v>
       </c>
       <c r="E73" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2115,20 +2085,20 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>collaborative support</t>
+          <t>emotional resilience</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>HRIP</t>
+          <t>HRIN</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2138,15 +2108,13 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>emotional resilience</t>
+          <t>lack of emotional understanding</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>1</v>
-      </c>
-      <c r="E75" t="n">
-        <v>1</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2161,11 +2129,11 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>lack of emotional understanding</t>
+          <t>fear</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E76" t="n">
         <v>1</v>
@@ -2184,13 +2152,15 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>reliance and trust</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>7</v>
-      </c>
-      <c r="E77" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2205,18 +2175,18 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>reliance and trust</t>
+          <t>emotional coldness</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>HRIN</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2226,15 +2196,13 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>emotional coldness</t>
+          <t>autonomous decisions</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>4</v>
-      </c>
-      <c r="E79" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2249,11 +2217,11 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>autonomous decisions</t>
+          <t>lack of emotionality</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E80" t="inlineStr"/>
     </row>
@@ -2270,18 +2238,18 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>lack of emotionality</t>
+          <t>efficiency</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>AN</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2291,11 +2259,11 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>efficiency</t>
+          <t>lack of empathy</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E82" t="inlineStr"/>
     </row>
@@ -2312,13 +2280,15 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>lack of empathy</t>
+          <t>errors in autonomy</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>11</v>
-      </c>
-      <c r="E83" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2337,7 +2307,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E84" t="inlineStr"/>
     </row>
@@ -2354,11 +2324,11 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>errors in autonomy</t>
+          <t>perceived negative anthropomorphism</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E85" t="n">
         <v>1</v>
@@ -2402,7 +2372,7 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E87" t="inlineStr"/>
     </row>
